--- a/data/trans_orig/P19D-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Clase-trans_orig.xlsx
@@ -791,19 +791,19 @@
         <v>347696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>333161</v>
+        <v>334877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358067</v>
+        <v>359404</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.896572627343634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8590909881443968</v>
+        <v>0.8635174373746607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9233153495534572</v>
+        <v>0.9267632708688949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -812,19 +812,19 @@
         <v>246674</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236641</v>
+        <v>235452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254489</v>
+        <v>253863</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.919440494663211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8820424262548863</v>
+        <v>0.8776119610648258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9485707297664454</v>
+        <v>0.9462354674920674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>573</v>
@@ -833,19 +833,19 @@
         <v>594371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>574407</v>
+        <v>576943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>607647</v>
+        <v>607762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9059236725759661</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.875495055691182</v>
+        <v>0.8793596792594092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9261577327659472</v>
+        <v>0.9263330064373242</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>22169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14053</v>
+        <v>14040</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32518</v>
+        <v>32237</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05716538929895093</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03623757046351742</v>
+        <v>0.0362030972494241</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08385230724640458</v>
+        <v>0.08312624319323926</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -883,19 +883,19 @@
         <v>13288</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6648</v>
+        <v>7527</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21377</v>
+        <v>22916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04952775451986453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02477880721882166</v>
+        <v>0.02805607038597745</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07968023218912489</v>
+        <v>0.08541664901649464</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -904,19 +904,19 @@
         <v>35457</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25818</v>
+        <v>25333</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49344</v>
+        <v>49698</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05404223543028527</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03935170633951231</v>
+        <v>0.03861123196725824</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07520805485855028</v>
+        <v>0.0757481145316109</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>17941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10821</v>
+        <v>10844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29850</v>
+        <v>29433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0462619833574151</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02790370255277583</v>
+        <v>0.02796239696656423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07697119916442118</v>
+        <v>0.07589507761679834</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -954,19 +954,19 @@
         <v>8325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4018</v>
+        <v>4068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16515</v>
+        <v>16128</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03103175081692446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01497740251844194</v>
+        <v>0.0151639794471036</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06155660883480275</v>
+        <v>0.06011380137074078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -975,19 +975,19 @@
         <v>26266</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17484</v>
+        <v>18031</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39260</v>
+        <v>40369</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04003409199374864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02664885215436594</v>
+        <v>0.02748296112223475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05983911960024247</v>
+        <v>0.06152981499233378</v>
       </c>
     </row>
     <row r="8">
@@ -1126,19 +1126,19 @@
         <v>265671</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>251162</v>
+        <v>253568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>276556</v>
+        <v>276041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8849666012575789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8366356188487905</v>
+        <v>0.8446496837690934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.921225128194701</v>
+        <v>0.9195092264434744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>303</v>
@@ -1147,19 +1147,19 @@
         <v>311316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>300887</v>
+        <v>300524</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>318774</v>
+        <v>319020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9332987530021035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9020346447909261</v>
+        <v>0.9009450717757156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9556572281854298</v>
+        <v>0.9563949255915311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>557</v>
@@ -1168,19 +1168,19 @@
         <v>576987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>558471</v>
+        <v>559369</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>589356</v>
+        <v>590883</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9104046858169066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.881189113115414</v>
+        <v>0.8826062414455808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9299213844263259</v>
+        <v>0.9323304204417722</v>
       </c>
     </row>
     <row r="11">
@@ -1197,19 +1197,19 @@
         <v>18234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10329</v>
+        <v>10745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28784</v>
+        <v>27553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06074006715483303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03440732130784816</v>
+        <v>0.03579126255294152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09587978202688216</v>
+        <v>0.09178155262642441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1218,19 +1218,19 @@
         <v>10356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5618</v>
+        <v>4965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18598</v>
+        <v>19037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03104737853201064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01684366656099102</v>
+        <v>0.01488420418958858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05575559966600865</v>
+        <v>0.0570712494173668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1239,19 +1239,19 @@
         <v>28591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18875</v>
+        <v>18426</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41842</v>
+        <v>40847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04511226874905003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02978269023767785</v>
+        <v>0.02907353226037226</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0660200622671073</v>
+        <v>0.06445009111563076</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>16299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9523</v>
+        <v>8669</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28039</v>
+        <v>27833</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05429333158758812</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03172100251753344</v>
+        <v>0.02887836174401197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09339936153950473</v>
+        <v>0.09271490240050978</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1292,16 +1292,16 @@
         <v>6722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19410</v>
+        <v>20002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0356538684658858</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02015286171427615</v>
+        <v>0.02015083795224876</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05818982069525733</v>
+        <v>0.05996355451661319</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -1310,19 +1310,19 @@
         <v>28192</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18074</v>
+        <v>17816</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40556</v>
+        <v>41223</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04448304543404336</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02851844726314778</v>
+        <v>0.02811152731410146</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0639909392705878</v>
+        <v>0.06504395454517782</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4382</v>
+        <v>4350</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002024593204790202</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01018383673823727</v>
+        <v>0.01010933045775105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4392</v>
+        <v>5059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001527375038946623</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007700693326121376</v>
+        <v>0.008869633804002439</v>
       </c>
     </row>
     <row r="15">
@@ -1477,19 +1477,19 @@
         <v>395160</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>382869</v>
+        <v>383138</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>404988</v>
+        <v>404824</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9184073256761652</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8898404368983395</v>
+        <v>0.8904645618207441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9412470162104623</v>
+        <v>0.9408679825470447</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>129</v>
@@ -1498,19 +1498,19 @@
         <v>128914</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>121154</v>
+        <v>120426</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>134322</v>
+        <v>134355</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9203705239041831</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8649628906033083</v>
+        <v>0.8597683327207618</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9589785410076491</v>
+        <v>0.9592141781940682</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>517</v>
@@ -1519,19 +1519,19 @@
         <v>524075</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>509825</v>
+        <v>509133</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>535249</v>
+        <v>535992</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.918889465900588</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8939050763332063</v>
+        <v>0.8926902674271253</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9384811057211844</v>
+        <v>0.9397850702255546</v>
       </c>
     </row>
     <row r="16">
@@ -1548,19 +1548,19 @@
         <v>3278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10337</v>
+        <v>8214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00761912590710786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001893471548529815</v>
+        <v>0.001871523063409395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0240247210501119</v>
+        <v>0.01909019155172766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7681</v>
+        <v>8502</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01811221429425917</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05483810162831469</v>
+        <v>0.06069741093204938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1590,19 +1590,19 @@
         <v>5815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2074</v>
+        <v>1976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13612</v>
+        <v>13123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0101961147805021</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003637264787378382</v>
+        <v>0.003464265501574814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02386690660089726</v>
+        <v>0.02300973286662824</v>
       </c>
     </row>
     <row r="17">
@@ -1619,19 +1619,19 @@
         <v>30957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21300</v>
+        <v>21815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42289</v>
+        <v>41603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07194895521193671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0495036350358251</v>
+        <v>0.05070021002774013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09828449073325496</v>
+        <v>0.09669210479878466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1640,19 +1640,19 @@
         <v>8617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4210</v>
+        <v>4090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16080</v>
+        <v>16384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06151726180155777</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03005384613798014</v>
+        <v>0.02919726827445077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.114799745490124</v>
+        <v>0.116974913528869</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1661,19 +1661,19 @@
         <v>39574</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28674</v>
+        <v>29128</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52876</v>
+        <v>52946</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06938704427996327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05027629643877021</v>
+        <v>0.05107123049838861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09271011508601161</v>
+        <v>0.0928330823904432</v>
       </c>
     </row>
     <row r="18">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5829</v>
+        <v>6190</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002022099169525486</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006682240438400351</v>
+        <v>0.007096326912288581</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9399</v>
+        <v>9764</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004318973738843878</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01576398391248108</v>
+        <v>0.01637592862219555</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1807,19 +1807,19 @@
         <v>4339</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11181</v>
+        <v>11920</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002954663216931968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0007124518251597636</v>
+        <v>0.0007135475952626217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007613630591433451</v>
+        <v>0.008116872436283075</v>
       </c>
     </row>
     <row r="20">
@@ -1836,19 +1836,19 @@
         <v>793184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>775557</v>
+        <v>775131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>808712</v>
+        <v>808789</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9093096997635071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8891023857220501</v>
+        <v>0.8886143897624904</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9271113400110081</v>
+        <v>0.9272001208271622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>534</v>
@@ -1857,19 +1857,19 @@
         <v>547998</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>532729</v>
+        <v>533593</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>559628</v>
+        <v>560030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.919076406745812</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8934675310413487</v>
+        <v>0.8949160955103265</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9385804521283533</v>
+        <v>0.9392560028291931</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1320</v>
@@ -1878,19 +1878,19 @@
         <v>1341182</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1317907</v>
+        <v>1318855</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1361924</v>
+        <v>1362215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9132751230020753</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8974260401765132</v>
+        <v>0.8980718173671026</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9273994362480856</v>
+        <v>0.9275976105985294</v>
       </c>
     </row>
     <row r="21">
@@ -1907,19 +1907,19 @@
         <v>8563</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4384</v>
+        <v>3902</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15224</v>
+        <v>16514</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009817057980421123</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005026026043185163</v>
+        <v>0.004473389001096675</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0174528639238859</v>
+        <v>0.0189319722328578</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1928,19 +1928,19 @@
         <v>6067</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2918</v>
+        <v>2109</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12260</v>
+        <v>13132</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01017547290056558</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004893228423663197</v>
+        <v>0.00353653869134038</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02056179967303078</v>
+        <v>0.02202396674301863</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -1949,19 +1949,19 @@
         <v>14630</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8804</v>
+        <v>8565</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23698</v>
+        <v>23951</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009962579583144067</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005995237547935334</v>
+        <v>0.005832230267038946</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01613723678307251</v>
+        <v>0.01630911279300812</v>
       </c>
     </row>
     <row r="22">
@@ -1978,19 +1978,19 @@
         <v>68781</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54934</v>
+        <v>54200</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87113</v>
+        <v>86239</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07885114308654631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06297630947909619</v>
+        <v>0.06213523619666789</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09986631750085156</v>
+        <v>0.09886428514805294</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -1999,19 +1999,19 @@
         <v>39608</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28659</v>
+        <v>28454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54492</v>
+        <v>53727</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06642914661477851</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04806498484533443</v>
+        <v>0.04772244483374489</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09139195455781948</v>
+        <v>0.09010898244497396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -2020,19 +2020,19 @@
         <v>108390</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89819</v>
+        <v>87584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131962</v>
+        <v>127855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07380763419784869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.061161756969407</v>
+        <v>0.059640039366963</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08985929472602501</v>
+        <v>0.08706280087572671</v>
       </c>
     </row>
     <row r="23">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6684</v>
+        <v>6844</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004215747956425819</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01465461870959159</v>
+        <v>0.01500610660163958</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6697</v>
+        <v>7241</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002731105920292941</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009512257171385341</v>
+        <v>0.01028498991674094</v>
       </c>
     </row>
     <row r="25">
@@ -2187,19 +2187,19 @@
         <v>210009</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>198530</v>
+        <v>198215</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>220024</v>
+        <v>220207</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.847058911840377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8007598416941224</v>
+        <v>0.7994894628695773</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8874529437188015</v>
+        <v>0.8881948055652508</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>397</v>
@@ -2208,19 +2208,19 @@
         <v>418228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>405325</v>
+        <v>404251</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>429516</v>
+        <v>428982</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9170052882799649</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8887141594206883</v>
+        <v>0.8863593375610095</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9417552139034493</v>
+        <v>0.9405843221969257</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>600</v>
@@ -2229,19 +2229,19 @@
         <v>628237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>610882</v>
+        <v>610196</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>642048</v>
+        <v>642807</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8923725702401918</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8677214431191237</v>
+        <v>0.8667469938379322</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9119909927931409</v>
+        <v>0.9130691939402957</v>
       </c>
     </row>
     <row r="26">
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6065</v>
+        <v>5314</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00704347050973917</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02446108951115466</v>
+        <v>0.02143277040134297</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2279,19 +2279,19 @@
         <v>3181</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8789</v>
+        <v>9580</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006974964199840549</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00216713093398642</v>
+        <v>0.002178765505106922</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.019270801385616</v>
+        <v>0.02100487830651546</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2300,19 +2300,19 @@
         <v>4927</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1765</v>
+        <v>1886</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11397</v>
+        <v>11408</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006999089775768495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002506478569403319</v>
+        <v>0.002678792379274624</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01618826545420288</v>
+        <v>0.01620472676372607</v>
       </c>
     </row>
     <row r="27">
@@ -2329,19 +2329,19 @@
         <v>36172</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26248</v>
+        <v>26329</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>47707</v>
+        <v>47846</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1458976176498838</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.105869696917396</v>
+        <v>0.1061975400144295</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1924221447023498</v>
+        <v>0.1929831387145148</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>30</v>
@@ -2350,19 +2350,19 @@
         <v>32748</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>22486</v>
+        <v>22284</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46510</v>
+        <v>45442</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07180399956376883</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04930236053662754</v>
+        <v>0.04885887886840338</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.101978111639543</v>
+        <v>0.09963683178151192</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>66</v>
@@ -2371,19 +2371,19 @@
         <v>68920</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>56235</v>
+        <v>55137</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>86739</v>
+        <v>86771</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09789723406374676</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07987806691777397</v>
+        <v>0.07831953252199658</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1232073867760075</v>
+        <v>0.1232525453941742</v>
       </c>
     </row>
     <row r="28">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7626</v>
+        <v>8252</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002430397948765271</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.008065048635099261</v>
+        <v>0.008726231095660755</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7913</v>
+        <v>7537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001984906868311352</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.00683417936535037</v>
+        <v>0.006509287290855663</v>
       </c>
     </row>
     <row r="30">
@@ -2538,19 +2538,19 @@
         <v>203882</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>196582</v>
+        <v>197665</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>207987</v>
+        <v>208446</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.96064994828032</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9262573398445471</v>
+        <v>0.9313601963532355</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9799914824302511</v>
+        <v>0.9821579120418612</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>842</v>
@@ -2559,19 +2559,19 @@
         <v>846462</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>828374</v>
+        <v>825923</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>862632</v>
+        <v>864131</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8951433126255174</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8760152492418177</v>
+        <v>0.8734236875710109</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9122436719605913</v>
+        <v>0.9138282010417098</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1052</v>
@@ -2580,19 +2580,19 @@
         <v>1050343</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1032159</v>
+        <v>1029391</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1070656</v>
+        <v>1069078</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9071506556656088</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8914456563570775</v>
+        <v>0.8890542505103363</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9246939538564725</v>
+        <v>0.9233311241372203</v>
       </c>
     </row>
     <row r="31">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6737</v>
+        <v>6408</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.008875732793125644</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03174157403409467</v>
+        <v>0.03019304324218727</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2630,19 +2630,19 @@
         <v>14259</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7523</v>
+        <v>7774</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23678</v>
+        <v>23367</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01507939312995543</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00795588829860241</v>
+        <v>0.008220839570623143</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02503975748499475</v>
+        <v>0.02471094826870244</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2651,19 +2651,19 @@
         <v>16143</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9383</v>
+        <v>9609</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>26647</v>
+        <v>26635</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01394226439446277</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008103891109750528</v>
+        <v>0.008298780225151403</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02301412836799175</v>
+        <v>0.02300400330780836</v>
       </c>
     </row>
     <row r="32">
@@ -2680,19 +2680,19 @@
         <v>6468</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2723</v>
+        <v>2821</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12426</v>
+        <v>12888</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03047431892655434</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0128286073414376</v>
+        <v>0.01329210619858681</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05854767619846579</v>
+        <v>0.06072363897259585</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>84</v>
@@ -2701,19 +2701,19 @@
         <v>82597</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67262</v>
+        <v>66565</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100054</v>
+        <v>100355</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08734689629576189</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07113017966757694</v>
+        <v>0.07039366161741814</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1058083984194257</v>
+        <v>0.1061264846182453</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>91</v>
@@ -2722,19 +2722,19 @@
         <v>89064</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>70352</v>
+        <v>72824</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>106462</v>
+        <v>106996</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07692217307161704</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06076127348702495</v>
+        <v>0.06289554549762315</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0919480533022978</v>
+        <v>0.0924088962758642</v>
       </c>
     </row>
     <row r="33">
@@ -2826,19 +2826,19 @@
         <v>2635</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7073</v>
+        <v>7017</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001075179819141419</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.000354882912163482</v>
+        <v>0.0003537946221964336</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.002886158052356018</v>
+        <v>0.002863336583503072</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2847,19 +2847,19 @@
         <v>6796</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2438</v>
+        <v>2629</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14277</v>
+        <v>14678</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002480459538866933</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0008896984739439022</v>
+        <v>0.0009597160220238161</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005210994785341081</v>
+        <v>0.005357181107687673</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2868,19 +2868,19 @@
         <v>9431</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4220</v>
+        <v>4634</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17807</v>
+        <v>18095</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001816959045595867</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0008129968602543886</v>
+        <v>0.0008926943682899759</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.003430645548590488</v>
+        <v>0.003486140111020494</v>
       </c>
     </row>
     <row r="35">
@@ -2897,19 +2897,19 @@
         <v>2215603</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2184945</v>
+        <v>2184420</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2243593</v>
+        <v>2242543</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.9040579673629819</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8915483032814787</v>
+        <v>0.891333993544639</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9154790188007849</v>
+        <v>0.9150507844637252</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2446</v>
@@ -2918,19 +2918,19 @@
         <v>2499591</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2469495</v>
+        <v>2467101</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2527712</v>
+        <v>2526800</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.9123048699254185</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.9013204664907133</v>
+        <v>0.9004466378078155</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9225685254462891</v>
+        <v>0.9222356555444686</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4619</v>
@@ -2939,19 +2939,19 @@
         <v>4715193</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4673157</v>
+        <v>4675967</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4758260</v>
+        <v>4756968</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.9084111085330575</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.9003126441221581</v>
+        <v>0.9008539220197779</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9167081274263649</v>
+        <v>0.9164592664312965</v>
       </c>
     </row>
     <row r="36">
@@ -2968,19 +2968,19 @@
         <v>55875</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41727</v>
+        <v>42256</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71851</v>
+        <v>74143</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02279939450544565</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01702615151214969</v>
+        <v>0.01724239220590322</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02931827817011406</v>
+        <v>0.03025336058517726</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>47</v>
@@ -2989,19 +2989,19 @@
         <v>49688</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>37310</v>
+        <v>37106</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65137</v>
+        <v>65934</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01813538251215844</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01361739471505603</v>
+        <v>0.01354298279986387</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02377370079755844</v>
+        <v>0.02406471278174244</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>101</v>
@@ -3010,19 +3010,19 @@
         <v>105564</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>87394</v>
+        <v>86954</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128746</v>
+        <v>127665</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02033748805366065</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01683701938389009</v>
+        <v>0.0167522045256126</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02480378511030066</v>
+        <v>0.02459543804583936</v>
       </c>
     </row>
     <row r="37">
@@ -3039,19 +3039,19 @@
         <v>176618</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>150292</v>
+        <v>152478</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>202972</v>
+        <v>204351</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.072067458312431</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06132542682353696</v>
+        <v>0.06221743026180909</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0828209032657666</v>
+        <v>0.08338384024587538</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>179</v>
@@ -3060,19 +3060,19 @@
         <v>183788</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>159657</v>
+        <v>158727</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>213388</v>
+        <v>213337</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0670792880235561</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05827181297738385</v>
+        <v>0.05793230228705275</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07788272376109578</v>
+        <v>0.07786406409368188</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>351</v>
@@ -3081,19 +3081,19 @@
         <v>360406</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>325566</v>
+        <v>324569</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>399853</v>
+        <v>396885</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06943444436768596</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06272238407210544</v>
+        <v>0.06253018446256156</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07703419313886034</v>
+        <v>0.07646227591204324</v>
       </c>
     </row>
     <row r="38">
@@ -3474,19 +3474,19 @@
         <v>353146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>335977</v>
+        <v>338381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364917</v>
+        <v>365593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8980476267062222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8543871492534268</v>
+        <v>0.8605005734647628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9279829298791176</v>
+        <v>0.9297008975903064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -3495,19 +3495,19 @@
         <v>259375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246093</v>
+        <v>245760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269160</v>
+        <v>269247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8882592242859411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8427729739476674</v>
+        <v>0.841631982032892</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9217667385056718</v>
+        <v>0.9220673758919091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>564</v>
@@ -3516,19 +3516,19 @@
         <v>612521</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>591925</v>
+        <v>593417</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628598</v>
+        <v>629053</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8938764671923872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8638194476431829</v>
+        <v>0.8659972741257241</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9173379008336453</v>
+        <v>0.9180030406029044</v>
       </c>
     </row>
     <row r="6">
@@ -3545,19 +3545,19 @@
         <v>27740</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17793</v>
+        <v>17860</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42513</v>
+        <v>41653</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07054227856665825</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04524853407405105</v>
+        <v>0.04541755231382374</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1081096264137027</v>
+        <v>0.1059245091401092</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -3566,19 +3566,19 @@
         <v>18173</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10686</v>
+        <v>10516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29519</v>
+        <v>29430</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06223615480920624</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03659481879378194</v>
+        <v>0.03601241397206964</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1010906154357235</v>
+        <v>0.10078730746595</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -3587,19 +3587,19 @@
         <v>45913</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32489</v>
+        <v>31790</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62214</v>
+        <v>60642</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06700276663750002</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04741275338832276</v>
+        <v>0.04639203287050184</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0907906905166536</v>
+        <v>0.08849725599797534</v>
       </c>
     </row>
     <row r="7">
@@ -3616,19 +3616,19 @@
         <v>12352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7064</v>
+        <v>6176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22928</v>
+        <v>20826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03141009472711963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01796248343195343</v>
+        <v>0.01570438468030363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05830604068191921</v>
+        <v>0.05296113186649658</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3637,19 +3637,19 @@
         <v>14456</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7766</v>
+        <v>7747</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23530</v>
+        <v>24501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04950462090485271</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02659518340095119</v>
+        <v>0.02653032042673965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08058010692734173</v>
+        <v>0.08390798788612194</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3658,19 +3658,19 @@
         <v>26807</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17974</v>
+        <v>17295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40655</v>
+        <v>39717</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03912076617011277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02622968227447065</v>
+        <v>0.02523911294726762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05932888511166166</v>
+        <v>0.05796030395814068</v>
       </c>
     </row>
     <row r="8">
@@ -3809,19 +3809,19 @@
         <v>322500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304988</v>
+        <v>306198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>337351</v>
+        <v>338222</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8427090673133384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7969497875887159</v>
+        <v>0.800111838995109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8815171153908073</v>
+        <v>0.8837935317474549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -3830,19 +3830,19 @@
         <v>281427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>268009</v>
+        <v>266913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>291064</v>
+        <v>291608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.897691410613854</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8548917520985611</v>
+        <v>0.8513947081910058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9284307967997959</v>
+        <v>0.930167114075982</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>548</v>
@@ -3851,19 +3851,19 @@
         <v>603927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>583337</v>
+        <v>581917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>622927</v>
+        <v>622833</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8674679483656407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8378937579079175</v>
+        <v>0.8358529215986898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8947596531498676</v>
+        <v>0.8946242509220713</v>
       </c>
     </row>
     <row r="11">
@@ -3880,19 +3880,19 @@
         <v>27906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18364</v>
+        <v>18429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43009</v>
+        <v>41129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07292062443497037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04798498551340678</v>
+        <v>0.04815693538047376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1123848761218538</v>
+        <v>0.1074729341793909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3901,19 +3901,19 @@
         <v>11635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5759</v>
+        <v>5118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22145</v>
+        <v>23685</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03711423448354429</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01836893730883848</v>
+        <v>0.01632576478889013</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07063700666542001</v>
+        <v>0.07555131119409687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -3922,19 +3922,19 @@
         <v>39542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25797</v>
+        <v>27630</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54565</v>
+        <v>56671</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05679679091855861</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03705364709097696</v>
+        <v>0.0396875176881016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07837622223153301</v>
+        <v>0.08140143546196811</v>
       </c>
     </row>
     <row r="12">
@@ -3951,19 +3951,19 @@
         <v>32288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21874</v>
+        <v>21473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45632</v>
+        <v>47315</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08437030825169124</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05715675583380609</v>
+        <v>0.05610983811400178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1192394173662296</v>
+        <v>0.1236365014665871</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -3972,19 +3972,19 @@
         <v>20438</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12796</v>
+        <v>12314</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31024</v>
+        <v>31542</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0651943549026017</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04081524066390826</v>
+        <v>0.03927770270299386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09895983700567448</v>
+        <v>0.100612139279222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -3993,19 +3993,19 @@
         <v>52727</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39468</v>
+        <v>38040</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69537</v>
+        <v>69335</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07573526071580068</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05669090696887018</v>
+        <v>0.0546395652163578</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09988097657942516</v>
+        <v>0.09959127723839398</v>
       </c>
     </row>
     <row r="13">
@@ -4144,19 +4144,19 @@
         <v>454099</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>434224</v>
+        <v>435821</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>471644</v>
+        <v>469838</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8494857776410238</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8123040138590812</v>
+        <v>0.8152927560682469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8823071373207142</v>
+        <v>0.8789280975220115</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>203</v>
@@ -4165,19 +4165,19 @@
         <v>215088</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>204131</v>
+        <v>204266</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>223937</v>
+        <v>223897</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8933704752268159</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8478609180245362</v>
+        <v>0.8484213465672591</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9301243410004186</v>
+        <v>0.9299595325029929</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>635</v>
@@ -4186,19 +4186,19 @@
         <v>669187</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>646737</v>
+        <v>647471</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>687575</v>
+        <v>687154</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8631133272093198</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8341576916796072</v>
+        <v>0.8351039217769117</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8868292103131742</v>
+        <v>0.8862863271602555</v>
       </c>
     </row>
     <row r="16">
@@ -4215,19 +4215,19 @@
         <v>12871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6694</v>
+        <v>6832</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21933</v>
+        <v>22350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0240775746053364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01252214451452641</v>
+        <v>0.01278039658302778</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04103058735890984</v>
+        <v>0.04180950850095698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4236,19 +4236,19 @@
         <v>11147</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5842</v>
+        <v>5942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20009</v>
+        <v>20218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04630057818519096</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02426402394559561</v>
+        <v>0.02468015589094712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08310748411690741</v>
+        <v>0.08397452426280345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -4257,19 +4257,19 @@
         <v>24018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15584</v>
+        <v>15676</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35563</v>
+        <v>37323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03097850134064863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02009949491567205</v>
+        <v>0.02021817489976991</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04586943001799468</v>
+        <v>0.04813848213729185</v>
       </c>
     </row>
     <row r="17">
@@ -4286,19 +4286,19 @@
         <v>67588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50793</v>
+        <v>53916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85664</v>
+        <v>86345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1264366477536397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09501952021226751</v>
+        <v>0.1008605295031892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1602522043733078</v>
+        <v>0.1615255817963085</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -4307,19 +4307,19 @@
         <v>14525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8156</v>
+        <v>7985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23182</v>
+        <v>23608</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06032894658799311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03387708494032479</v>
+        <v>0.03316666530872846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09628610109415556</v>
+        <v>0.09805565889792464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -4328,19 +4328,19 @@
         <v>82113</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66765</v>
+        <v>65694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103139</v>
+        <v>101824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1059081714500316</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08611279469319705</v>
+        <v>0.08473207135539682</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1330277261720603</v>
+        <v>0.1313316269147811</v>
       </c>
     </row>
     <row r="18">
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8220</v>
+        <v>7700</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00237211422919632</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.008477320734454029</v>
+        <v>0.007941249532798716</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7423</v>
+        <v>8251</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001381061243749272</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004457048828502313</v>
+        <v>0.004954219235667408</v>
       </c>
     </row>
     <row r="20">
@@ -4495,19 +4495,19 @@
         <v>778753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>751964</v>
+        <v>752750</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>804620</v>
+        <v>802657</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8031040606992814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7754769428855895</v>
+        <v>0.7762879521347107</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8297795256311891</v>
+        <v>0.8277549313198069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>574</v>
@@ -4516,19 +4516,19 @@
         <v>616577</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>597985</v>
+        <v>597195</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>633191</v>
+        <v>632052</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8860851183060716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8593670348766443</v>
+        <v>0.8582318527590809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9099608782533865</v>
+        <v>0.9083246205172412</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1303</v>
@@ -4537,19 +4537,19 @@
         <v>1395330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1363090</v>
+        <v>1363005</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1424909</v>
+        <v>1428726</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8377729749802879</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8184158269606058</v>
+        <v>0.8183647968686845</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8555326610550312</v>
+        <v>0.8578242458301601</v>
       </c>
     </row>
     <row r="21">
@@ -4566,19 +4566,19 @@
         <v>11412</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6127</v>
+        <v>5512</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19878</v>
+        <v>20006</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01176870034680106</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006318446904547087</v>
+        <v>0.005684301431047333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02049968050586257</v>
+        <v>0.02063155032880841</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -4587,19 +4587,19 @@
         <v>12256</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5561</v>
+        <v>5426</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22088</v>
+        <v>21682</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01761296324637152</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007991386077697428</v>
+        <v>0.007797209887993518</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03174344642625545</v>
+        <v>0.03115974402238259</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -4608,19 +4608,19 @@
         <v>23668</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14701</v>
+        <v>15096</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36347</v>
+        <v>35579</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01421039313000192</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008826835779703128</v>
+        <v>0.009063577685875523</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02182312717661749</v>
+        <v>0.02136217309910549</v>
       </c>
     </row>
     <row r="22">
@@ -4637,19 +4637,19 @@
         <v>177214</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152559</v>
+        <v>153239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202922</v>
+        <v>201636</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1827551247247212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1573294077862249</v>
+        <v>0.1580302272882732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2092669945407246</v>
+        <v>0.2079405466290354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -4658,19 +4658,19 @@
         <v>67011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51707</v>
+        <v>52370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83724</v>
+        <v>84482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09630191844755691</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07430813410214378</v>
+        <v>0.07526112946183633</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1203207641199651</v>
+        <v>0.1214095369906371</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -4679,19 +4679,19 @@
         <v>244225</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>215968</v>
+        <v>213490</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>274705</v>
+        <v>274237</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1466355706459609</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1296700366426679</v>
+        <v>0.128181930107655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1649364753521477</v>
+        <v>0.1646551811852978</v>
       </c>
     </row>
     <row r="23">
@@ -4830,19 +4830,19 @@
         <v>312437</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>296644</v>
+        <v>293468</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>328824</v>
+        <v>328003</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7765305365346683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7372772980048099</v>
+        <v>0.7293858904179807</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8172598198643257</v>
+        <v>0.8152190219626225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>511</v>
@@ -4851,19 +4851,19 @@
         <v>554484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>532616</v>
+        <v>534942</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>573624</v>
+        <v>573211</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8254632937213736</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7929070821547818</v>
+        <v>0.796369986418337</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8539570435603786</v>
+        <v>0.8533412103666836</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>811</v>
@@ -4872,19 +4872,19 @@
         <v>866921</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>840239</v>
+        <v>841657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>892688</v>
+        <v>891552</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8071330043426312</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7822910661044633</v>
+        <v>0.7836106080659971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8311227030357017</v>
+        <v>0.8300645220024847</v>
       </c>
     </row>
     <row r="26">
@@ -4901,19 +4901,19 @@
         <v>6529</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2538</v>
+        <v>2371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13318</v>
+        <v>13840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01622748261348734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006308173651241665</v>
+        <v>0.005893216172146778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03310056989815129</v>
+        <v>0.03439750192423509</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4922,19 +4922,19 @@
         <v>7560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3164</v>
+        <v>3202</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14939</v>
+        <v>15103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01125428554354777</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00471037210540327</v>
+        <v>0.004766145193342767</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02223963091956911</v>
+        <v>0.02248356992919568</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -4943,19 +4943,19 @@
         <v>14089</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7767</v>
+        <v>7528</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23607</v>
+        <v>23110</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01311725314788038</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007231332059891352</v>
+        <v>0.007008805703508743</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02197850087865123</v>
+        <v>0.02151631013914002</v>
       </c>
     </row>
     <row r="27">
@@ -4972,19 +4972,19 @@
         <v>83384</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>67162</v>
+        <v>68193</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>99030</v>
+        <v>101820</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2072419808518443</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1669248350001629</v>
+        <v>0.1694874557918853</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.246129262622328</v>
+        <v>0.2530631402461355</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>104</v>
@@ -4993,19 +4993,19 @@
         <v>109681</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>90675</v>
+        <v>92409</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>129686</v>
+        <v>129735</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1632824207350787</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1349886570982127</v>
+        <v>0.1375702645887286</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.193064591037296</v>
+        <v>0.1931373299140956</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>184</v>
@@ -5014,19 +5014,19 @@
         <v>193065</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>167607</v>
+        <v>170502</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>218766</v>
+        <v>219891</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1797497425094884</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1560480647385386</v>
+        <v>0.1587426731905268</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.203678123509754</v>
+        <v>0.2047263767142278</v>
       </c>
     </row>
     <row r="28">
@@ -5165,19 +5165,19 @@
         <v>190632</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>177281</v>
+        <v>179570</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>200387</v>
+        <v>201432</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8581480879768282</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7980497577191623</v>
+        <v>0.8083538295664456</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9020610981190093</v>
+        <v>0.9067667474817809</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>738</v>
@@ -5186,19 +5186,19 @@
         <v>786681</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>761930</v>
+        <v>762168</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>806713</v>
+        <v>806921</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8499307924748841</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8231905371124937</v>
+        <v>0.8234470671150452</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8715734103500619</v>
+        <v>0.8717984282371963</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>930</v>
@@ -5207,19 +5207,19 @@
         <v>977312</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>954154</v>
+        <v>952909</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1003041</v>
+        <v>1002393</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8515212527036959</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8313436735592243</v>
+        <v>0.8302591392769354</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8739381252357026</v>
+        <v>0.8733735337770542</v>
       </c>
     </row>
     <row r="31">
@@ -5236,19 +5236,19 @@
         <v>9971</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4121</v>
+        <v>4038</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19789</v>
+        <v>20246</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04488559569875658</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0185533056778668</v>
+        <v>0.01817627682311018</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08908151713175719</v>
+        <v>0.0911396679323193</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -5257,19 +5257,19 @@
         <v>20150</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12819</v>
+        <v>12149</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31787</v>
+        <v>31195</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0217705470206916</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01384914886905801</v>
+        <v>0.01312624958840268</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03434242131082103</v>
+        <v>0.03370298847890988</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -5278,19 +5278,19 @@
         <v>30121</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20256</v>
+        <v>20425</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42805</v>
+        <v>43828</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02624447224351139</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0176487886920753</v>
+        <v>0.01779625171909159</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03729518160216041</v>
+        <v>0.03818649007805471</v>
       </c>
     </row>
     <row r="32">
@@ -5307,19 +5307,19 @@
         <v>21540</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13995</v>
+        <v>13980</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33156</v>
+        <v>31184</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09696631632441523</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06299934193372608</v>
+        <v>0.0629340485881776</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1492556659428736</v>
+        <v>0.1403769452111172</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>113</v>
@@ -5328,19 +5328,19 @@
         <v>118751</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>100528</v>
+        <v>101246</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>143047</v>
+        <v>141262</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1282986605044243</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1086109365394136</v>
+        <v>0.1093860666817821</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1545486663737959</v>
+        <v>0.1526200518106957</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>134</v>
@@ -5349,19 +5349,19 @@
         <v>140291</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>119244</v>
+        <v>118857</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>161219</v>
+        <v>162369</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1222342750527927</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1038956996822542</v>
+        <v>0.103559194361039</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1404681065876</v>
+        <v>0.141470372011407</v>
       </c>
     </row>
     <row r="33">
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8492</v>
+        <v>8006</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0007918959707929091</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.00292342526281296</v>
+        <v>0.002756204680179136</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7890</v>
+        <v>8070</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0003805692033510265</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001305479703360405</v>
+        <v>0.001335229949279437</v>
       </c>
     </row>
     <row r="35">
@@ -5516,19 +5516,19 @@
         <v>2411567</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2366258</v>
+        <v>2369331</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2450461</v>
+        <v>2458222</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.8302402493111323</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8146413775089114</v>
+        <v>0.815699383380536</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8436302410206944</v>
+        <v>0.8463022353180014</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2516</v>
@@ -5537,19 +5537,19 @@
         <v>2713632</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2674240</v>
+        <v>2670095</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2755767</v>
+        <v>2751642</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8643748625579685</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.851827201050168</v>
+        <v>0.850506828551004</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8777960631261575</v>
+        <v>0.8764822184078069</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4791</v>
@@ -5558,19 +5558,19 @@
         <v>5125200</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5065680</v>
+        <v>5062248</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5181345</v>
+        <v>5181163</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.8479704571194149</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8381229448560643</v>
+        <v>0.8375550412268945</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8572598173512875</v>
+        <v>0.8572297222337416</v>
       </c>
     </row>
     <row r="36">
@@ -5587,19 +5587,19 @@
         <v>96429</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>76602</v>
+        <v>78951</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>119323</v>
+        <v>122137</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03319802538520052</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02637206200044035</v>
+        <v>0.02718064384290613</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04107982855022443</v>
+        <v>0.04204854763338297</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>70</v>
@@ -5608,19 +5608,19 @@
         <v>80922</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>63572</v>
+        <v>63750</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>104041</v>
+        <v>103147</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02577611985407344</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02024969122125795</v>
+        <v>0.02030640634032045</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0331401351323333</v>
+        <v>0.03285542790888506</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>153</v>
@@ -5629,19 +5629,19 @@
         <v>177351</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>150192</v>
+        <v>149146</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>207944</v>
+        <v>208612</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0293429376931634</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02484940354438529</v>
+        <v>0.02467637688215713</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03440456344214127</v>
+        <v>0.03451509155137016</v>
       </c>
     </row>
     <row r="37">
@@ -5658,19 +5658,19 @@
         <v>394365</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>360362</v>
+        <v>356000</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>439352</v>
+        <v>433750</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1357698293328743</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1240633492932492</v>
+        <v>0.1225614439725211</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1512574703505252</v>
+        <v>0.1493288908792486</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>321</v>
@@ -5679,19 +5679,19 @@
         <v>344862</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>307358</v>
+        <v>309052</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>378952</v>
+        <v>383910</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1098490175879581</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09790304258258439</v>
+        <v>0.09844254853048194</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1207076837089867</v>
+        <v>0.1222869635569615</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>687</v>
@@ -5700,19 +5700,19 @@
         <v>739227</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>687908</v>
+        <v>684284</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>791347</v>
+        <v>798555</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1223060359840706</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1138152371946642</v>
+        <v>0.1132156176727339</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1309293385799921</v>
+        <v>0.1321218387990333</v>
       </c>
     </row>
     <row r="38">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5452</v>
+        <v>5482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003503707186416807</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01726281237480346</v>
+        <v>0.01735885360430607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6294</v>
+        <v>6250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001575106771891865</v>
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008958738237593101</v>
+        <v>0.00889737905718363</v>
       </c>
     </row>
     <row r="5">
@@ -6109,19 +6109,19 @@
         <v>348845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>336509</v>
+        <v>334646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>359178</v>
+        <v>359954</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9021238992564463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8702232732343536</v>
+        <v>0.8654037156261324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9288448366130861</v>
+        <v>0.9308526678574441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -6130,19 +6130,19 @@
         <v>279949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267908</v>
+        <v>266824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290725</v>
+        <v>291179</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8864302448981171</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8483040582868654</v>
+        <v>0.8448711868687183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9205529492746355</v>
+        <v>0.9219905487324637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>593</v>
@@ -6151,19 +6151,19 @@
         <v>628794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>610623</v>
+        <v>611047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>643760</v>
+        <v>644625</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8950687488285322</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8692037179381465</v>
+        <v>0.8698063139933019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9163722716497245</v>
+        <v>0.9176041190619983</v>
       </c>
     </row>
     <row r="6">
@@ -6180,19 +6180,19 @@
         <v>20303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13014</v>
+        <v>12365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30764</v>
+        <v>31242</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05250490422706824</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03365342466646259</v>
+        <v>0.03197622866198935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07955658400018641</v>
+        <v>0.08079278591768646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -6201,19 +6201,19 @@
         <v>20246</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12307</v>
+        <v>12370</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30227</v>
+        <v>30718</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06410566849363815</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03896972125533119</v>
+        <v>0.03916842180384438</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09571031414119534</v>
+        <v>0.09726471387187495</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -6222,19 +6222,19 @@
         <v>40549</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29706</v>
+        <v>28096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55954</v>
+        <v>54898</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.057720078150915</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0422860194161789</v>
+        <v>0.03999322102099996</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07964844928541789</v>
+        <v>0.07814534574367216</v>
       </c>
     </row>
     <row r="7">
@@ -6251,19 +6251,19 @@
         <v>17545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10827</v>
+        <v>10546</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27567</v>
+        <v>27660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0453711965164854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02799841931186692</v>
+        <v>0.02727108058313141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07128871289326778</v>
+        <v>0.07152866035271255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6272,19 +6272,19 @@
         <v>14515</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8385</v>
+        <v>8288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23870</v>
+        <v>24284</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04596037942182798</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02654918288696672</v>
+        <v>0.02624335076778403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07558236081522256</v>
+        <v>0.0768915147011546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -6293,19 +6293,19 @@
         <v>32060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22118</v>
+        <v>22619</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45668</v>
+        <v>45990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04563606624866102</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03148449350608625</v>
+        <v>0.03219784414944576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06500638408625641</v>
+        <v>0.06546587405583713</v>
       </c>
     </row>
     <row r="8">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5676</v>
+        <v>5499</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003142608730062969</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01798504586196403</v>
+        <v>0.01742371263504785</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5942</v>
+        <v>6592</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00152782583716949</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009153455923463177</v>
+        <v>0.01015348933345935</v>
       </c>
     </row>
     <row r="10">
@@ -6460,19 +6460,19 @@
         <v>275604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262220</v>
+        <v>262278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>285780</v>
+        <v>286123</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.87324090269817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8308330018925209</v>
+        <v>0.8310177776621812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9054809408696672</v>
+        <v>0.9065699871626748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -6481,19 +6481,19 @@
         <v>292693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>279433</v>
+        <v>279204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>304296</v>
+        <v>304052</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8774427972351133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8376907156295943</v>
+        <v>0.8370060224010977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9122280815914059</v>
+        <v>0.9114943605999613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>536</v>
@@ -6502,19 +6502,19 @@
         <v>568297</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>551419</v>
+        <v>550619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>585202</v>
+        <v>585522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8753999838943399</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.84940139676593</v>
+        <v>0.8481687021344904</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9014399420932792</v>
+        <v>0.9019318871130129</v>
       </c>
     </row>
     <row r="11">
@@ -6531,19 +6531,19 @@
         <v>17391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10653</v>
+        <v>9845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28395</v>
+        <v>26879</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05510332007352937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03375248170025572</v>
+        <v>0.03119311589631641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08996738442815137</v>
+        <v>0.08516358765974355</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -6552,19 +6552,19 @@
         <v>23094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15515</v>
+        <v>15508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33799</v>
+        <v>34931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06923102080749327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04651005844681468</v>
+        <v>0.04649121035932637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1013242910425566</v>
+        <v>0.1047161019791172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -6573,19 +6573,19 @@
         <v>40485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28717</v>
+        <v>29628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53036</v>
+        <v>54566</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06236262959013803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04423487676366033</v>
+        <v>0.04563838234098838</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08169677143440779</v>
+        <v>0.08405340705654522</v>
       </c>
     </row>
     <row r="12">
@@ -6602,19 +6602,19 @@
         <v>21624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13439</v>
+        <v>13838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32025</v>
+        <v>32044</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0685131684982377</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04258013833230156</v>
+        <v>0.04384477914789192</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1014689782605725</v>
+        <v>0.10152928062315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -6623,19 +6623,19 @@
         <v>17788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10955</v>
+        <v>10589</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28475</v>
+        <v>28358</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05332618195739346</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03284043287386088</v>
+        <v>0.03174514522332503</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08536232517640156</v>
+        <v>0.08501385220707318</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -6644,19 +6644,19 @@
         <v>39412</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28072</v>
+        <v>28565</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53090</v>
+        <v>53992</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06070956067835253</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04324221242136998</v>
+        <v>0.04400090482379542</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08177860505979459</v>
+        <v>0.08316854639195936</v>
       </c>
     </row>
     <row r="13">
@@ -6795,19 +6795,19 @@
         <v>364781</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>351614</v>
+        <v>348967</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>376334</v>
+        <v>375013</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9002247038681093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8677297136636477</v>
+        <v>0.8611976329930731</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9287353397504555</v>
+        <v>0.9254768005441865</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>112</v>
@@ -6816,19 +6816,19 @@
         <v>122093</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>113417</v>
+        <v>112774</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>128749</v>
+        <v>128906</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8757138922819659</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8134855876946143</v>
+        <v>0.8088756700440747</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9234570101510473</v>
+        <v>0.9245801545977678</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>462</v>
@@ -6837,19 +6837,19 @@
         <v>486875</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>471456</v>
+        <v>470568</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>500773</v>
+        <v>500863</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8939501390779302</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8656396058175921</v>
+        <v>0.8640099040050468</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9194689506145906</v>
+        <v>0.9196345873616417</v>
       </c>
     </row>
     <row r="16">
@@ -6866,19 +6866,19 @@
         <v>3489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8909</v>
+        <v>8721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008611069116460514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002276456994214788</v>
+        <v>0.002260621118548301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02198711187310643</v>
+        <v>0.02152275955915204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6887,19 +6887,19 @@
         <v>2963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7116</v>
+        <v>8851</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02125427411664987</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006846002627104098</v>
+        <v>0.006936474775944454</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05103935713218655</v>
+        <v>0.06348382080890098</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6908,19 +6908,19 @@
         <v>6453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2402</v>
+        <v>2148</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12838</v>
+        <v>13052</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0118476248971778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004409944932787096</v>
+        <v>0.0039443694669098</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02357273945049667</v>
+        <v>0.02396392111460625</v>
       </c>
     </row>
     <row r="17">
@@ -6937,19 +6937,19 @@
         <v>36941</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26321</v>
+        <v>26715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49034</v>
+        <v>50954</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09116422701543025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06495720520034771</v>
+        <v>0.06592818246505358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1210096603553383</v>
+        <v>0.1257463159931944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -6958,19 +6958,19 @@
         <v>14365</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8250</v>
+        <v>8108</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22464</v>
+        <v>22921</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1030318336013842</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05917652703767404</v>
+        <v>0.05815613555394296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1611206777677611</v>
+        <v>0.1643997254122665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -6979,19 +6979,19 @@
         <v>51306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38228</v>
+        <v>38489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66466</v>
+        <v>66528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09420223602489206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07019004338671256</v>
+        <v>0.07066993849496277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1220389783149682</v>
+        <v>0.1221525918900007</v>
       </c>
     </row>
     <row r="18">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5563</v>
+        <v>4947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001178971748368045</v>
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006325596543454904</v>
+        <v>0.005625066948649576</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5771</v>
+        <v>5198</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006631835140294531</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003691214897571134</v>
+        <v>0.00332432852315949</v>
       </c>
     </row>
     <row r="20">
@@ -7146,19 +7146,19 @@
         <v>799517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>782032</v>
+        <v>781559</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>816986</v>
+        <v>815821</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9090535333603992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.889172614910545</v>
+        <v>0.8886346393513808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9289153466599208</v>
+        <v>0.9275910166354386</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>587</v>
@@ -7167,19 +7167,19 @@
         <v>602113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>583026</v>
+        <v>582743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>618686</v>
+        <v>617985</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8802422992703879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8523378718001137</v>
+        <v>0.8519244187287682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9044709482998096</v>
+        <v>0.903446404354979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1352</v>
@@ -7188,19 +7188,19 @@
         <v>1401630</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1375325</v>
+        <v>1376005</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1425687</v>
+        <v>1425297</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8964489093895763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8796250081942621</v>
+        <v>0.8800594733062955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9118349208273371</v>
+        <v>0.9115859086816676</v>
       </c>
     </row>
     <row r="21">
@@ -7217,19 +7217,19 @@
         <v>4809</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1053</v>
+        <v>1027</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12751</v>
+        <v>11671</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005467439400597299</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001196892132202733</v>
+        <v>0.001167954715760897</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01449785417969689</v>
+        <v>0.0132698148025708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -7238,19 +7238,19 @@
         <v>14182</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8059</v>
+        <v>8302</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23860</v>
+        <v>23856</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02073241004703005</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01178232110642405</v>
+        <v>0.01213718650602164</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03488098316936241</v>
+        <v>0.03487529532415191</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -7259,19 +7259,19 @@
         <v>18990</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10884</v>
+        <v>11968</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29631</v>
+        <v>31756</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01214570990865029</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006961221543968254</v>
+        <v>0.007654656089501589</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01895097048972563</v>
+        <v>0.02031045802820977</v>
       </c>
     </row>
     <row r="22">
@@ -7288,19 +7288,19 @@
         <v>74142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58332</v>
+        <v>59071</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91635</v>
+        <v>92432</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08430005549063553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06632389651985229</v>
+        <v>0.06716359737394351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1041890435973196</v>
+        <v>0.1050950830516847</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -7309,19 +7309,19 @@
         <v>67736</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54867</v>
+        <v>53973</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87552</v>
+        <v>86992</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09902529068258209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08021168292293833</v>
+        <v>0.07890358870001063</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.127994074823733</v>
+        <v>0.1271761918847854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -7330,19 +7330,19 @@
         <v>141879</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119087</v>
+        <v>119067</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166926</v>
+        <v>165906</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09074219718774397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0761649139255156</v>
+        <v>0.0761527052824422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1067616753763417</v>
+        <v>0.106109630716307</v>
       </c>
     </row>
     <row r="23">
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5756</v>
+        <v>5326</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002399332409634443</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01353895950965975</v>
+        <v>0.01252726555931199</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5475</v>
+        <v>5707</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001038133927419378</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00557149965309906</v>
+        <v>0.005807308311154028</v>
       </c>
     </row>
     <row r="25">
@@ -7497,19 +7497,19 @@
         <v>355980</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>339387</v>
+        <v>337202</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>369804</v>
+        <v>371085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8372668104664958</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7982406333366808</v>
+        <v>0.7931006223666303</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8697818217353119</v>
+        <v>0.8727941776006108</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>477</v>
@@ -7518,19 +7518,19 @@
         <v>496870</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>481414</v>
+        <v>481779</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>510031</v>
+        <v>510084</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.891277282058668</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8635530175221297</v>
+        <v>0.8642073817536564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.914885853870498</v>
+        <v>0.9149797028215758</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>821</v>
@@ -7539,19 +7539,19 @@
         <v>852850</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>830127</v>
+        <v>827491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>874564</v>
+        <v>871517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.867908238748701</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8447837863624513</v>
+        <v>0.8421012151810577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.89000512264374</v>
+        <v>0.8869046044590412</v>
       </c>
     </row>
     <row r="26">
@@ -7568,19 +7568,19 @@
         <v>3737</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10081</v>
+        <v>11244</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008789274024438232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002475944404395332</v>
+        <v>0.002468785408373422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02371108520416187</v>
+        <v>0.02644672493648398</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -7589,19 +7589,19 @@
         <v>5913</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1994</v>
+        <v>2050</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13751</v>
+        <v>14145</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01060711069298942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003576224570605972</v>
+        <v>0.003677747062388245</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02466560818599571</v>
+        <v>0.02537330833675092</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -7610,19 +7610,19 @@
         <v>9650</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4195</v>
+        <v>4207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17716</v>
+        <v>20904</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009820576108389063</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004268874732796362</v>
+        <v>0.004281321691622749</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01802886226139903</v>
+        <v>0.02127311773522183</v>
       </c>
     </row>
     <row r="27">
@@ -7639,19 +7639,19 @@
         <v>64432</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>50922</v>
+        <v>49866</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>80141</v>
+        <v>82513</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1515445830994315</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1197676694481511</v>
+        <v>0.1172841419376031</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1884926453754548</v>
+        <v>0.1940720451567219</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>52</v>
@@ -7660,19 +7660,19 @@
         <v>54698</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42183</v>
+        <v>41781</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>70185</v>
+        <v>68885</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09811560724834267</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07566731850234329</v>
+        <v>0.07494578867533021</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1258961987009052</v>
+        <v>0.123565326758682</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>113</v>
@@ -7681,19 +7681,19 @@
         <v>119130</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>98426</v>
+        <v>101122</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>140411</v>
+        <v>142633</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1212330512154905</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1001633850517989</v>
+        <v>0.102907357304633</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1428898074688815</v>
+        <v>0.145150904285769</v>
       </c>
     </row>
     <row r="28">
@@ -7832,19 +7832,19 @@
         <v>207888</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>195850</v>
+        <v>195442</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>217244</v>
+        <v>218698</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8606477003453257</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8108125142661701</v>
+        <v>0.8091243984894237</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8993812738161637</v>
+        <v>0.9054014374946674</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>669</v>
@@ -7853,19 +7853,19 @@
         <v>719317</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>699641</v>
+        <v>696756</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>738029</v>
+        <v>737301</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.872938959309592</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8490603782393936</v>
+        <v>0.8455588583973589</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.895646846682246</v>
+        <v>0.8947632526445412</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>867</v>
@@ -7874,19 +7874,19 @@
         <v>927205</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>904996</v>
+        <v>905390</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>946237</v>
+        <v>949039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8701527120853836</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8493104568476229</v>
+        <v>0.8496803497302283</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8880135493396181</v>
+        <v>0.8906434836483456</v>
       </c>
     </row>
     <row r="31">
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7755</v>
+        <v>7780</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009410818210265929</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03210358089178466</v>
+        <v>0.03220856790200247</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -7924,19 +7924,19 @@
         <v>21995</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13898</v>
+        <v>13250</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34594</v>
+        <v>33449</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02669239110989538</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01686625192548054</v>
+        <v>0.01607975084820095</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04198181684841325</v>
+        <v>0.04059314476985225</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -7945,19 +7945,19 @@
         <v>24268</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16072</v>
+        <v>15193</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36841</v>
+        <v>36609</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02277491327776002</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01508274941001787</v>
+        <v>0.01425769530914288</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03457443249058582</v>
+        <v>0.03435603413192857</v>
       </c>
     </row>
     <row r="32">
@@ -7974,19 +7974,19 @@
         <v>31387</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22283</v>
+        <v>21030</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43170</v>
+        <v>43143</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1299414814444083</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09224900958858334</v>
+        <v>0.08706239803152828</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1787215537553376</v>
+        <v>0.1786116062003585</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>79</v>
@@ -7995,19 +7995,19 @@
         <v>82706</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65358</v>
+        <v>66754</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100339</v>
+        <v>101174</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1003686495805127</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07931582544344702</v>
+        <v>0.08101027585703754</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1217675168314384</v>
+        <v>0.1227816273863597</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -8016,19 +8016,19 @@
         <v>114093</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>94553</v>
+        <v>94407</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>135598</v>
+        <v>134057</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1070723746368565</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08873503629117875</v>
+        <v>0.08859757316889338</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1272546066546887</v>
+        <v>0.1258078405371945</v>
       </c>
     </row>
     <row r="33">
@@ -8120,19 +8120,19 @@
         <v>3049</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8185</v>
+        <v>8137</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001148899001201855</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0003730981123202443</v>
+        <v>0.0003723843489016115</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.003084282477319961</v>
+        <v>0.003066327216716908</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6655</v>
+        <v>5548</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0003876644250271694</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.002331529940290106</v>
+        <v>0.001943769585129346</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -8162,19 +8162,19 @@
         <v>4155</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10507</v>
+        <v>10470</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0007544196409876246</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0001883299324595026</v>
+        <v>0.0001880670009826332</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001907536270356634</v>
+        <v>0.001900916822461089</v>
       </c>
     </row>
     <row r="35">
@@ -8191,19 +8191,19 @@
         <v>2352616</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2322670</v>
+        <v>2318297</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2385525</v>
+        <v>2383925</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.886529113743902</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.875244667400831</v>
+        <v>0.8735969265035185</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8989299603168318</v>
+        <v>0.8983271461008226</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2394</v>
@@ -8212,19 +8212,19 @@
         <v>2513035</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2476689</v>
+        <v>2476999</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2548837</v>
+        <v>2547546</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8804254455111001</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8676916661991377</v>
+        <v>0.8678003394287858</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8929684749539345</v>
+        <v>0.8925159504214499</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4631</v>
@@ -8233,19 +8233,19 @@
         <v>4865650</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4813866</v>
+        <v>4815122</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4913957</v>
+        <v>4914214</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.883366131905196</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8739646084944938</v>
+        <v>0.874192538155374</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8921363454166819</v>
+        <v>0.8921829188294608</v>
       </c>
     </row>
     <row r="36">
@@ -8262,19 +8262,19 @@
         <v>52003</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38617</v>
+        <v>37407</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>70195</v>
+        <v>68625</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01959596451185857</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01455173914494442</v>
+        <v>0.01409606275555805</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02645123098883347</v>
+        <v>0.02585981401445383</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>81</v>
@@ -8283,19 +8283,19 @@
         <v>88392</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>69728</v>
+        <v>70410</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>110226</v>
+        <v>109788</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03096772909625181</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02442876338221916</v>
+        <v>0.02466769513012105</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03861710292778262</v>
+        <v>0.03846348953689532</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>128</v>
@@ -8304,19 +8304,19 @@
         <v>140395</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>116208</v>
+        <v>118274</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>165907</v>
+        <v>167276</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02548892649514199</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0210976980446479</v>
+        <v>0.0214728606344878</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03012064927868139</v>
+        <v>0.03036924312576486</v>
       </c>
     </row>
     <row r="37">
@@ -8333,19 +8333,19 @@
         <v>246071</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>220719</v>
+        <v>217372</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>278882</v>
+        <v>274711</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09272602274303761</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08317291624798219</v>
+        <v>0.08191166438383329</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1050902949217661</v>
+        <v>0.1035186865722011</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>239</v>
@@ -8354,19 +8354,19 @@
         <v>251808</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>222192</v>
+        <v>222811</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>284812</v>
+        <v>283644</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08821916096762086</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07784341673879545</v>
+        <v>0.07806031815941339</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09978184257908999</v>
+        <v>0.0993728750456984</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>473</v>
@@ -8375,19 +8375,19 @@
         <v>497878</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>456746</v>
+        <v>455459</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>543477</v>
+        <v>542972</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09039052195867441</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08292288825853825</v>
+        <v>0.08268917985185543</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09866912619487424</v>
+        <v>0.09857745536297893</v>
       </c>
     </row>
     <row r="38">
@@ -8768,19 +8768,19 @@
         <v>507807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>494226</v>
+        <v>493462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>519145</v>
+        <v>518109</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9342061766726559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9092215224041731</v>
+        <v>0.9078151148230249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9550640543475106</v>
+        <v>0.953157192926807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>639</v>
@@ -8789,19 +8789,19 @@
         <v>456907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>445716</v>
+        <v>445721</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>464009</v>
+        <v>464515</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9452294825804672</v>
+        <v>0.9452294825804671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9220786669123695</v>
+        <v>0.9220877825820856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.959922802786319</v>
+        <v>0.9609679864412418</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1150</v>
@@ -8810,19 +8810,19 @@
         <v>964714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>946702</v>
+        <v>949395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>977576</v>
+        <v>977923</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9393947920385752</v>
+        <v>0.9393947920385751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9218550418644545</v>
+        <v>0.924477767828391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9519189559629497</v>
+        <v>0.9522565411434422</v>
       </c>
     </row>
     <row r="6">
@@ -8839,19 +8839,19 @@
         <v>19639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11919</v>
+        <v>12944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30303</v>
+        <v>32599</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03613047558009078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02192707488676651</v>
+        <v>0.02381360528799107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05574727956779488</v>
+        <v>0.05997117344457065</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -8860,19 +8860,19 @@
         <v>15670</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9822</v>
+        <v>9476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25669</v>
+        <v>25773</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03241835564232913</v>
+        <v>0.03241835564232912</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02031843684184338</v>
+        <v>0.01960327724707757</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05310395774815306</v>
+        <v>0.05331727535901083</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -8881,19 +8881,19 @@
         <v>35310</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25738</v>
+        <v>25533</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48756</v>
+        <v>48930</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03438319915409981</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02506266002504483</v>
+        <v>0.02486294258169489</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04747665540825807</v>
+        <v>0.04764581596799583</v>
       </c>
     </row>
     <row r="7">
@@ -8910,19 +8910,19 @@
         <v>16124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9130</v>
+        <v>9225</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26851</v>
+        <v>27167</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0296633477472534</v>
+        <v>0.02966334774725339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01679621536043239</v>
+        <v>0.01697041162242307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04939779554027086</v>
+        <v>0.04997931845038137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -8931,19 +8931,19 @@
         <v>10805</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6430</v>
+        <v>6392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16563</v>
+        <v>17068</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0223521617772038</v>
+        <v>0.02235216177720379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01330166289885396</v>
+        <v>0.01322346447184522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.034264460258708</v>
+        <v>0.03530897828092756</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -8952,19 +8952,19 @@
         <v>26929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18319</v>
+        <v>18216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39980</v>
+        <v>39538</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02622200880732505</v>
+        <v>0.02622200880732504</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01783785227350446</v>
+        <v>0.01773785629000362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03893087044138609</v>
+        <v>0.038500698000136</v>
       </c>
     </row>
     <row r="8">
@@ -9103,19 +9103,19 @@
         <v>446950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>433468</v>
+        <v>434279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>456918</v>
+        <v>456879</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9308835216948564</v>
+        <v>0.9308835216948562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9028043634790568</v>
+        <v>0.9044925771260943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9516444955096542</v>
+        <v>0.9515642854967569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>554</v>
@@ -9124,19 +9124,19 @@
         <v>398575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>390825</v>
+        <v>391091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>405232</v>
+        <v>405190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9554173010764708</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9368389023646159</v>
+        <v>0.9374766126867448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9713744742377171</v>
+        <v>0.9712724311217766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1000</v>
@@ -9145,19 +9145,19 @@
         <v>845525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>830151</v>
+        <v>830819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>857137</v>
+        <v>856912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9422896945994972</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9251562779230976</v>
+        <v>0.9259005361887873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9552308923409268</v>
+        <v>0.9549801294325626</v>
       </c>
     </row>
     <row r="11">
@@ -9174,19 +9174,19 @@
         <v>17517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9795</v>
+        <v>10618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27922</v>
+        <v>28332</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03648366487418846</v>
+        <v>0.03648366487418845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02039972284201858</v>
+        <v>0.02211406596210112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05815519196788011</v>
+        <v>0.05900908134811748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -9195,19 +9195,19 @@
         <v>7224</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3897</v>
+        <v>3704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12143</v>
+        <v>12316</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0173163865373378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00934059702058513</v>
+        <v>0.008878490184392648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02910841223267147</v>
+        <v>0.02952332837778945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -9216,19 +9216,19 @@
         <v>24741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17093</v>
+        <v>16790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37343</v>
+        <v>37022</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02757246992860532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01904889806447464</v>
+        <v>0.01871167153498472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04161667967153464</v>
+        <v>0.04125850542993369</v>
       </c>
     </row>
     <row r="12">
@@ -9245,19 +9245,19 @@
         <v>15668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9454</v>
+        <v>9493</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25609</v>
+        <v>25666</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0326328134309552</v>
+        <v>0.03263281343095519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01969076175502686</v>
+        <v>0.01977152166118628</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05333807958384737</v>
+        <v>0.05345609991882571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -9266,19 +9266,19 @@
         <v>11375</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6520</v>
+        <v>6703</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17893</v>
+        <v>17982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02726631238619128</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01562883456607259</v>
+        <v>0.01606870512902463</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04289158888671834</v>
+        <v>0.04310520892964981</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -9287,19 +9287,19 @@
         <v>27043</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18944</v>
+        <v>19391</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38424</v>
+        <v>37747</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03013783547189748</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02111221083406158</v>
+        <v>0.02161065238073276</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04282173620934059</v>
+        <v>0.04206711891964696</v>
       </c>
     </row>
     <row r="13">
@@ -9438,19 +9438,19 @@
         <v>420165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>403185</v>
+        <v>403934</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>431824</v>
+        <v>432676</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9039545426066276</v>
+        <v>0.9039545426066277</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8674227061506435</v>
+        <v>0.8690347716888455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9290372486767706</v>
+        <v>0.9308710143014046</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>271</v>
@@ -9459,19 +9459,19 @@
         <v>175080</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>169140</v>
+        <v>168719</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>179817</v>
+        <v>179689</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.9405678650872975</v>
+        <v>0.9405678650872973</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.9086549745316742</v>
+        <v>0.9063962661135879</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9660140676108551</v>
+        <v>0.965326866747386</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>705</v>
@@ -9480,19 +9480,19 @@
         <v>595245</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>578448</v>
+        <v>577347</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>608128</v>
+        <v>608297</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.9144243149354178</v>
+        <v>0.914424314935418</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8886215401797897</v>
+        <v>0.8869295181160203</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.934216665151838</v>
+        <v>0.9344750024465249</v>
       </c>
     </row>
     <row r="16">
@@ -9509,19 +9509,19 @@
         <v>7234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2831</v>
+        <v>2887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14287</v>
+        <v>14608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01556276481077862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006089940963781725</v>
+        <v>0.006210976608460962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03073796916039532</v>
+        <v>0.03142870676783124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -9530,19 +9530,19 @@
         <v>3589</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1116</v>
+        <v>1372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7880</v>
+        <v>8309</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01927932187182198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005994226713620109</v>
+        <v>0.007369302078231326</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04233267708559975</v>
+        <v>0.04463769793571284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -9551,19 +9551,19 @@
         <v>10822</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5899</v>
+        <v>6070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19580</v>
+        <v>19955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01662553386968131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009062363553409043</v>
+        <v>0.009325234966704848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03007979668057085</v>
+        <v>0.03065565506811102</v>
       </c>
     </row>
     <row r="17">
@@ -9580,19 +9580,19 @@
         <v>37409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26678</v>
+        <v>26764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53356</v>
+        <v>52897</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08048269258259379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05739607912622937</v>
+        <v>0.05757974352059722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1147911201886368</v>
+        <v>0.1138029181844491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -9601,19 +9601,19 @@
         <v>7474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3731</v>
+        <v>3771</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13107</v>
+        <v>13401</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04015281304088064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02004288249627983</v>
+        <v>0.02025989635277852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07041215584395472</v>
+        <v>0.07199207120709025</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -9622,19 +9622,19 @@
         <v>44883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33328</v>
+        <v>32924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60496</v>
+        <v>61194</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06895015119490074</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05119844959253749</v>
+        <v>0.05057819690773077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09293564948990295</v>
+        <v>0.09400673808857749</v>
       </c>
     </row>
     <row r="18">
@@ -9773,19 +9773,19 @@
         <v>988987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>966331</v>
+        <v>965794</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1008674</v>
+        <v>1008108</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.902304720364836</v>
+        <v>0.9023047203648356</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8816340596095873</v>
+        <v>0.881144188625491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9202656509097239</v>
+        <v>0.9197497748156309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1135</v>
@@ -9794,19 +9794,19 @@
         <v>790588</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>776606</v>
+        <v>776582</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>800217</v>
+        <v>800444</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9463613163883525</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9296244567238285</v>
+        <v>0.929595530576782</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9578866054562784</v>
+        <v>0.9581593811517045</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2107</v>
@@ -9815,19 +9815,19 @@
         <v>1779576</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1752202</v>
+        <v>1751714</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1802556</v>
+        <v>1803032</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9213600949799212</v>
+        <v>0.9213600949799213</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9071875559304241</v>
+        <v>0.9069349789654302</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9332579881820023</v>
+        <v>0.9335045167053083</v>
       </c>
     </row>
     <row r="21">
@@ -9844,19 +9844,19 @@
         <v>6721</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2394</v>
+        <v>2658</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14339</v>
+        <v>15474</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.006131539158487602</v>
+        <v>0.006131539158487601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002184579126712996</v>
+        <v>0.002425128136270446</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01308219508521471</v>
+        <v>0.01411737814162883</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -9865,19 +9865,19 @@
         <v>8391</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3969</v>
+        <v>4040</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17697</v>
+        <v>18108</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01004489310327922</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004750750198029063</v>
+        <v>0.004835707590553369</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02118400429535145</v>
+        <v>0.02167543386515552</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -9886,19 +9886,19 @@
         <v>15112</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8391</v>
+        <v>8734</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25807</v>
+        <v>26656</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007824144401516858</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00434443111509217</v>
+        <v>0.004521955956143166</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01336156072118276</v>
+        <v>0.01380100413883822</v>
       </c>
     </row>
     <row r="22">
@@ -9915,19 +9915,19 @@
         <v>100360</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82317</v>
+        <v>82454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123252</v>
+        <v>122126</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09156374047667654</v>
+        <v>0.09156374047667652</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07510209071970869</v>
+        <v>0.0752274578803938</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1124494317562039</v>
+        <v>0.1114215751602786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -9936,19 +9936,19 @@
         <v>36418</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27822</v>
+        <v>28153</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48807</v>
+        <v>49054</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04359379050836821</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03330425571988947</v>
+        <v>0.03370044217672742</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05842311799893881</v>
+        <v>0.05871966230633308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>158</v>
@@ -9957,19 +9957,19 @@
         <v>136778</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115963</v>
+        <v>115432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162710</v>
+        <v>162372</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07081576061856193</v>
+        <v>0.07081576061856196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06003875145651325</v>
+        <v>0.05976382301246966</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08424171138050709</v>
+        <v>0.08406677202303744</v>
       </c>
     </row>
     <row r="23">
@@ -10108,19 +10108,19 @@
         <v>410601</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>390376</v>
+        <v>390137</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>429173</v>
+        <v>428915</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.808127361127757</v>
+        <v>0.8081273611277573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.768322891357185</v>
+        <v>0.7678511467767014</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8446807738463483</v>
+        <v>0.8441722246131423</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1123</v>
@@ -10129,19 +10129,19 @@
         <v>720802</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>705592</v>
+        <v>704690</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>732863</v>
+        <v>733185</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9049432065862915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8858472420483028</v>
+        <v>0.884715482884765</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9200860097894558</v>
+        <v>0.9204899074846822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1517</v>
@@ -10150,19 +10150,19 @@
         <v>1131403</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1104113</v>
+        <v>1106354</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1153242</v>
+        <v>1153765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8672375025816503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8463189043076079</v>
+        <v>0.8480370090829132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8839774534563524</v>
+        <v>0.8843784928711633</v>
       </c>
     </row>
     <row r="26">
@@ -10182,16 +10182,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7948</v>
+        <v>8725</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.003420023488364538</v>
+        <v>0.003420023488364539</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01564351817126784</v>
+        <v>0.01717195350449628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -10200,19 +10200,19 @@
         <v>4301</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8656</v>
+        <v>8848</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005399918534565272</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002050228809155018</v>
+        <v>0.002053162900179661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0108667931215048</v>
+        <v>0.01110839390042895</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -10221,19 +10221,19 @@
         <v>6039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2419</v>
+        <v>2669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12639</v>
+        <v>12369</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004628832601072353</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001854145621115403</v>
+        <v>0.002045883649175506</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009687776119658304</v>
+        <v>0.009481001665954447</v>
       </c>
     </row>
     <row r="27">
@@ -10250,19 +10250,19 @@
         <v>95751</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>77914</v>
+        <v>77356</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>116061</v>
+        <v>115522</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1884526153838782</v>
+        <v>0.1884526153838783</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1533472679440978</v>
+        <v>0.1522495854776392</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2284267766027082</v>
+        <v>0.227366006013967</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>113</v>
@@ -10271,19 +10271,19 @@
         <v>71413</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>58997</v>
+        <v>59503</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>84992</v>
+        <v>86868</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08965687487914341</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07406891603357335</v>
+        <v>0.07470352210959898</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1067045927557252</v>
+        <v>0.109059738951531</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>210</v>
@@ -10292,19 +10292,19 @@
         <v>167164</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>144414</v>
+        <v>144493</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>195069</v>
+        <v>192759</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1281336648172774</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1106952606740128</v>
+        <v>0.1107556807484052</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1495235624813928</v>
+        <v>0.1477523412678184</v>
       </c>
     </row>
     <row r="28">
@@ -10443,19 +10443,19 @@
         <v>200342</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>183994</v>
+        <v>181478</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>211349</v>
+        <v>210254</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9001858087799463</v>
+        <v>0.9001858087799461</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8267326031776698</v>
+        <v>0.8154258547378626</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9496450401485129</v>
+        <v>0.9447246575991586</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1026</v>
@@ -10464,19 +10464,19 @@
         <v>749983</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>734051</v>
+        <v>736018</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>762653</v>
+        <v>764707</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9185779544318722</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8990642416143863</v>
+        <v>0.90147319563066</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9340965076334792</v>
+        <v>0.936612099558956</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1119</v>
@@ -10485,19 +10485,19 @@
         <v>950324</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>927526</v>
+        <v>928225</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>968869</v>
+        <v>969838</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9146383823884546</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.89269630579197</v>
+        <v>0.8933693985725405</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9324870596126675</v>
+        <v>0.9334200726050796</v>
       </c>
     </row>
     <row r="31">
@@ -10514,19 +10514,19 @@
         <v>7794</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22006</v>
+        <v>20199</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03502063836111732</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01065278273271757</v>
+        <v>0.01066297413564528</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09887903075200906</v>
+        <v>0.09075832935607582</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -10535,19 +10535,19 @@
         <v>3436</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1172</v>
+        <v>1435</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7360</v>
+        <v>7629</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004208491977615686</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001435362078575548</v>
+        <v>0.001758171810166693</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.009015112273620115</v>
+        <v>0.009343453987092916</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -10556,19 +10556,19 @@
         <v>11230</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4560</v>
+        <v>4372</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24512</v>
+        <v>24793</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01080841092059242</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00438903227929972</v>
+        <v>0.004207870274314697</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02359164093625104</v>
+        <v>0.02386186957348792</v>
       </c>
     </row>
     <row r="32">
@@ -10585,19 +10585,19 @@
         <v>14420</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5965</v>
+        <v>6325</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29919</v>
+        <v>30951</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06479355285893641</v>
+        <v>0.06479355285893643</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02680218658817841</v>
+        <v>0.0284182850440295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1344346326374629</v>
+        <v>0.1390727001468766</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -10606,19 +10606,19 @@
         <v>63042</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50129</v>
+        <v>49793</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>78472</v>
+        <v>77639</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.07721355359051209</v>
+        <v>0.0772135535905121</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06139733400057314</v>
+        <v>0.06098676705344761</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09611279798653083</v>
+        <v>0.09509209855388599</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>101</v>
@@ -10627,19 +10627,19 @@
         <v>77462</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>62070</v>
+        <v>59744</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>99579</v>
+        <v>97134</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07455320669095296</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0597389932905022</v>
+        <v>0.05750076439565034</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0958401728099196</v>
+        <v>0.09348639751029807</v>
       </c>
     </row>
     <row r="33">
@@ -10778,19 +10778,19 @@
         <v>2974851</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2931277</v>
+        <v>2933476</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3012357</v>
+        <v>3010823</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.8973298478995909</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8841861989833251</v>
+        <v>0.8848495076466342</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9086429630485637</v>
+        <v>0.9081803891623957</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4748</v>
@@ -10799,19 +10799,19 @@
         <v>3291935</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3265759</v>
+        <v>3263651</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3316756</v>
+        <v>3314396</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.9312210900591329</v>
+        <v>0.931221090059133</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.9238162782215132</v>
+        <v>0.923219914291598</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9382421945357333</v>
+        <v>0.9375748317421039</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7598</v>
@@ -10820,19 +10820,19 @@
         <v>6266787</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6218122</v>
+        <v>6218568</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6314921</v>
+        <v>6310940</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.9148193073637894</v>
+        <v>0.9148193073637891</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.9077153073318471</v>
+        <v>0.9077804314459526</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9218458858386838</v>
+        <v>0.9212647779743651</v>
       </c>
     </row>
     <row r="36">
@@ -10849,19 +10849,19 @@
         <v>60643</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>45011</v>
+        <v>45268</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>80205</v>
+        <v>80847</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01829213197049121</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0135771352279122</v>
+        <v>0.01365451041879482</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02419291001625627</v>
+        <v>0.0243866593129511</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>59</v>
@@ -10870,19 +10870,19 @@
         <v>42612</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32602</v>
+        <v>32022</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>56351</v>
+        <v>56861</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01205399643078647</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009222326307029689</v>
+        <v>0.009058477682629755</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01594051362335166</v>
+        <v>0.01608492409816862</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>111</v>
@@ -10891,19 +10891,19 @@
         <v>103254</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>83492</v>
+        <v>84087</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>124803</v>
+        <v>127259</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01507296348618932</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01218803277007665</v>
+        <v>0.01227487582671362</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01821867095070597</v>
+        <v>0.0185771315083015</v>
       </c>
     </row>
     <row r="37">
@@ -10920,19 +10920,19 @@
         <v>279732</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>247284</v>
+        <v>246319</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>320109</v>
+        <v>317841</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08437802012991777</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07459031129130055</v>
+        <v>0.07429944722412168</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09655727675942422</v>
+        <v>0.09587322377718165</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>303</v>
@@ -10941,19 +10941,19 @@
         <v>200527</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>180211</v>
+        <v>179989</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>226601</v>
+        <v>226232</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05672491351008059</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05097810350829263</v>
+        <v>0.05091511765851318</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06410066622769915</v>
+        <v>0.06399649619650308</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>585</v>
@@ -10962,19 +10962,19 @@
         <v>480259</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>435496</v>
+        <v>441094</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>521631</v>
+        <v>523329</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.07010772915002138</v>
+        <v>0.07010772915002136</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06357331035158094</v>
+        <v>0.06439051363845422</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0761471739747985</v>
+        <v>0.07639499198423817</v>
       </c>
     </row>
     <row r="38">
